--- a/padronn-web/src/main/webapp/WEB-INF/formato/Reporte-padron-observados.xlsx
+++ b/padronn-web/src/main/webapp/WEB-INF/formato/Reporte-padron-observados.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="300" windowWidth="21840" windowHeight="9660"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">observaciones!$A$1:$L$1</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -43,6 +43,9 @@
     <t>MUNICIPIO</t>
   </si>
   <si>
+    <t>OBSEVACIÓN</t>
+  </si>
+  <si>
     <t>FECHA DE CREACIÓN</t>
   </si>
   <si>
@@ -54,9 +57,6 @@
   </si>
   <si>
     <t>NÚMERO DE DOCUMENTO NACIONAL DE IDENTIFICACIÓN (DNI)</t>
-  </si>
-  <si>
-    <t>OBSERVACIÓN</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,13 +465,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>2</v>
@@ -492,10 +492,10 @@
         <v>7</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
